--- a/heckscher_ohlin_charts.xlsx
+++ b/heckscher_ohlin_charts.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nduta\OneDrive\Desktop\Projects\Resource-Allocation-Constrained-Optimization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="Regression Plot" sheetId="3" r:id="rId3"/>
     <sheet name="Summary" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -73,12 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +153,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -161,12 +162,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -185,12 +204,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -429,10 +450,10 @@
             <c:numRef>
               <c:f>'Dual-Axis Chart'!$B$2:$B$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>0.1049938104827823</c:v>
+                  <c:v>0.10499381048278229</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.1026953264926049</c:v>
@@ -444,7 +465,7 @@
                   <c:v>0.1107875422960246</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1130130072287747</c:v>
+                  <c:v>0.11301300722877471</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.1208036967280741</c:v>
@@ -468,28 +489,28 @@
                   <c:v>0.1200936875278388</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.126949810797419</c:v>
+                  <c:v>0.12694981079741899</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.1333142057696789</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1251616279152094</c:v>
+                  <c:v>0.12516162791520941</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1051024810774022</c:v>
+                  <c:v>0.10510248107740219</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.1187615627363526</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1297066127172647</c:v>
+                  <c:v>0.12970661271726469</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.1371204633225436</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1375709369943564</c:v>
+                  <c:v>0.13757093699435641</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.1240472202054837</c:v>
@@ -504,49 +525,49 @@
                   <c:v>0.1225280564691153</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1454424764453262</c:v>
+                  <c:v>0.14544247644532621</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1395319716378252</c:v>
+                  <c:v>0.13953197163782519</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1350753474821884</c:v>
+                  <c:v>0.13507534748218841</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1342751411863649</c:v>
+                  <c:v>0.13427514118636491</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1320712895849719</c:v>
+                  <c:v>0.13207128958497191</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1325463169886563</c:v>
+                  <c:v>0.13254631698865629</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.1267358181083505</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1184783753630689</c:v>
+                  <c:v>0.11847837536306891</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.1227862427229116</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1290524054304968</c:v>
+                  <c:v>0.12905240543049681</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1387263256067714</c:v>
+                  <c:v>0.13872632560677139</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1394341826679933</c:v>
+                  <c:v>0.13943418266799329</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1461105699373982</c:v>
+                  <c:v>0.14611056993739821</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.1558435122834531</c:v>
+                  <c:v>0.15584351228345311</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1633654357689776</c:v>
+                  <c:v>0.16336543576897761</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0.1691309970175226</c:v>
@@ -555,61 +576,61 @@
                   <c:v>0.1734465292469165</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1621418331011363</c:v>
+                  <c:v>0.16214183310113631</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.158068853992258</c:v>
+                  <c:v>0.15806885399225801</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1604040326368074</c:v>
+                  <c:v>0.16040403263680739</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.168738835180385</c:v>
+                  <c:v>0.16873883518038499</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1740207223461558</c:v>
+                  <c:v>0.17402072234615579</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0.1745193921456801</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.1668028043162675</c:v>
+                  <c:v>0.16680280431626751</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1528029253668552</c:v>
+                  <c:v>0.15280292536685519</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.1238776836245102</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1375269353309647</c:v>
+                  <c:v>0.13752693533096469</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1444453221306946</c:v>
+                  <c:v>0.14444532213069461</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1568140109027477</c:v>
+                  <c:v>0.15681401090274771</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1649808246239775</c:v>
+                  <c:v>0.16498082462397751</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.171341693337219</c:v>
+                  <c:v>0.17134169333721899</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1767794586508176</c:v>
+                  <c:v>0.17677945865081759</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1734560073958012</c:v>
+                  <c:v>0.17345600739580119</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.1768124509645906</c:v>
+                  <c:v>0.17681245096459061</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.1816430658869921</c:v>
+                  <c:v>0.18164306588699211</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.1826630581909194</c:v>
+                  <c:v>0.18266305819091941</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0.178390347309522</c:v>
@@ -618,13 +639,13 @@
                   <c:v>0.183182400369824</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.1895689472847147</c:v>
+                  <c:v>0.18956894728471471</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.1856869467537422</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.1860781340873222</c:v>
+                  <c:v>0.18607813408732221</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0</c:v>
@@ -632,13 +653,29 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02D1-42A9-BD55-A424973F27EF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -877,88 +914,88 @@
             <c:numRef>
               <c:f>'Dual-Axis Chart'!$C$2:$C$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>5275.800686199917</c:v>
+                  <c:v>5275.8006861999174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5233.257629524485</c:v>
+                  <c:v>5233.2576295244853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5841.275010974384</c:v>
+                  <c:v>5841.2750109743838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6134.169776639002</c:v>
+                  <c:v>6134.1697766390016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6503.427891128536</c:v>
+                  <c:v>6503.4278911285364</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7269.509835536923</c:v>
+                  <c:v>7269.5098355369228</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7784.183774506568</c:v>
+                  <c:v>7784.1837745065677</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7356.169519573874</c:v>
+                  <c:v>7356.1695195738739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7660.970651759624</c:v>
+                  <c:v>7660.9706517596242</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7887.739297441299</c:v>
+                  <c:v>7887.7392974412987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7221.073481810716</c:v>
+                  <c:v>7221.0734818107157</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7816.061439271831</c:v>
+                  <c:v>7816.0614392718307</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8433.140637390674</c:v>
+                  <c:v>8433.1406373906739</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9104.763396002729</c:v>
+                  <c:v>9104.7633960027288</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8264.677742019658</c:v>
+                  <c:v>8264.6777420196577</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6793.356084035406</c:v>
+                  <c:v>6793.3560840354057</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7889.486328795332</c:v>
+                  <c:v>7889.4863287953322</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8757.01123413885</c:v>
+                  <c:v>8757.0112341388503</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9459.479815715082</c:v>
+                  <c:v>9459.4798157150817</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9536.55167157325</c:v>
+                  <c:v>9536.5516715732501</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8415.596313122815</c:v>
+                  <c:v>8415.5963131228145</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9012.93753910707</c:v>
+                  <c:v>9012.9375391070698</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7768.749319690867</c:v>
+                  <c:v>7768.7493196908672</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8397.004887234902</c:v>
+                  <c:v>8397.0048872349016</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>10498.7492513124</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10316.23753972997</c:v>
+                  <c:v>10316.237539729969</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10123.95838636865</c:v>
+                  <c:v>10123.958386368649</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>10237.3073681927</c:v>
@@ -967,22 +1004,22 @@
                   <c:v>10333.13608008482</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10561.88484549984</c:v>
+                  <c:v>10561.884845499841</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10125.34066440484</c:v>
+                  <c:v>10125.340664404839</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9418.33132835254</c:v>
+                  <c:v>9418.3313283525404</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9966.799116308481</c:v>
+                  <c:v>9966.7991163084807</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10673.21283430739</c:v>
+                  <c:v>10673.212834307389</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11765.9618304883</c:v>
+                  <c:v>11765.961830488301</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>12027.08687601557</c:v>
@@ -994,34 +1031,34 @@
                   <c:v>14143.9241091408</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15336.12725159791</c:v>
+                  <c:v>15336.127251597911</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>16434.7252116516</c:v>
+                  <c:v>16434.725211651599</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>17146.90081775209</c:v>
+                  <c:v>17146.900817752088</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>16049.32913214949</c:v>
+                  <c:v>16049.329132149491</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15792.82183685867</c:v>
+                  <c:v>15792.821836858669</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>16289.29010238908</c:v>
+                  <c:v>16289.290102389081</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17688.79088071651</c:v>
+                  <c:v>17688.790880716511</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>18636.57737676587</c:v>
+                  <c:v>18636.577376765868</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>18941.43016597428</c:v>
+                  <c:v>18941.430165974281</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>18259.98053852132</c:v>
+                  <c:v>18259.980538521319</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>16616.29579709957</c:v>
@@ -1030,46 +1067,46 @@
                   <c:v>13135.11339978857</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15004.99073983819</c:v>
+                  <c:v>15004.990739838189</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>16033.56897359788</c:v>
+                  <c:v>16033.568973597879</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>17649.85739543407</c:v>
+                  <c:v>17649.857395434072</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18910.57799971686</c:v>
+                  <c:v>18910.577999716861</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20067.9386865059</c:v>
+                  <c:v>20067.938686505899</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>21149.48007483868</c:v>
+                  <c:v>21149.480074838681</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>20857.33849285122</c:v>
+                  <c:v>20857.338492851221</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>21629.77563482806</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>22631.57862263848</c:v>
+                  <c:v>22631.578622638481</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>23138.42127469625</c:v>
+                  <c:v>23138.421274696251</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>22508.65559861411</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>24466.90072699302</c:v>
+                  <c:v>24466.900726993019</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>25473.32700290956</c:v>
+                  <c:v>25473.327002909558</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>25248.6147512536</c:v>
+                  <c:v>25248.614751253601</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>25855.0591874368</c:v>
@@ -1080,8 +1117,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-02D1-42A9-BD55-A424973F27EF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="50010003"/>
         <c:axId val="50010004"/>
       </c:lineChart>
@@ -1090,6 +1142,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1107,9 +1160,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1127,6 +1182,7 @@
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickLblSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
@@ -1135,6 +1191,7 @@
           <c:max val="0.19"/>
           <c:min val="0.1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1170,9 +1227,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1199,6 +1258,7 @@
           <c:max val="25000"/>
           <c:min val="5000"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
           <c:tx>
@@ -1224,9 +1284,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1254,12 +1316,15 @@
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="50010004"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:spPr>
         <a:solidFill>
@@ -1274,7 +1339,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1287,6 +1352,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1302,8 +1369,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1321,12 +1398,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1359,95 +1438,95 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Regression Plot'!$A$2:$A$67</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>5275.800686199917</c:v>
+                  <c:v>5275.8006861999174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5233.257629524485</c:v>
+                  <c:v>5233.2576295244853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5841.275010974384</c:v>
+                  <c:v>5841.2750109743838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6134.169776639002</c:v>
+                  <c:v>6134.1697766390016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6503.427891128536</c:v>
+                  <c:v>6503.4278911285364</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7269.509835536923</c:v>
+                  <c:v>7269.5098355369228</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7784.183774506568</c:v>
+                  <c:v>7784.1837745065677</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7356.169519573874</c:v>
+                  <c:v>7356.1695195738739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7660.970651759624</c:v>
+                  <c:v>7660.9706517596242</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7887.739297441299</c:v>
+                  <c:v>7887.7392974412987</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7221.073481810716</c:v>
+                  <c:v>7221.0734818107157</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7816.061439271831</c:v>
+                  <c:v>7816.0614392718307</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8433.140637390674</c:v>
+                  <c:v>8433.1406373906739</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9104.763396002729</c:v>
+                  <c:v>9104.7633960027288</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8264.677742019658</c:v>
+                  <c:v>8264.6777420196577</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6793.356084035406</c:v>
+                  <c:v>6793.3560840354057</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7889.486328795332</c:v>
+                  <c:v>7889.4863287953322</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8757.01123413885</c:v>
+                  <c:v>8757.0112341388503</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9459.479815715082</c:v>
+                  <c:v>9459.4798157150817</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9536.55167157325</c:v>
+                  <c:v>9536.5516715732501</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8415.596313122815</c:v>
+                  <c:v>8415.5963131228145</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9012.93753910707</c:v>
+                  <c:v>9012.9375391070698</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7768.749319690867</c:v>
+                  <c:v>7768.7493196908672</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8397.004887234902</c:v>
+                  <c:v>8397.0048872349016</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>10498.7492513124</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10316.23753972997</c:v>
+                  <c:v>10316.237539729969</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10123.95838636865</c:v>
+                  <c:v>10123.958386368649</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>10237.3073681927</c:v>
@@ -1456,22 +1535,22 @@
                   <c:v>10333.13608008482</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10561.88484549984</c:v>
+                  <c:v>10561.884845499841</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10125.34066440484</c:v>
+                  <c:v>10125.340664404839</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9418.33132835254</c:v>
+                  <c:v>9418.3313283525404</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9966.799116308481</c:v>
+                  <c:v>9966.7991163084807</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10673.21283430739</c:v>
+                  <c:v>10673.212834307389</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11765.9618304883</c:v>
+                  <c:v>11765.961830488301</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>12027.08687601557</c:v>
@@ -1483,34 +1562,34 @@
                   <c:v>14143.9241091408</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>15336.12725159791</c:v>
+                  <c:v>15336.127251597911</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>16434.7252116516</c:v>
+                  <c:v>16434.725211651599</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>17146.90081775209</c:v>
+                  <c:v>17146.900817752088</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>16049.32913214949</c:v>
+                  <c:v>16049.329132149491</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15792.82183685867</c:v>
+                  <c:v>15792.821836858669</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>16289.29010238908</c:v>
+                  <c:v>16289.290102389081</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>17688.79088071651</c:v>
+                  <c:v>17688.790880716511</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>18636.57737676587</c:v>
+                  <c:v>18636.577376765868</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>18941.43016597428</c:v>
+                  <c:v>18941.430165974281</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>18259.98053852132</c:v>
+                  <c:v>18259.980538521319</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>16616.29579709957</c:v>
@@ -1519,61 +1598,61 @@
                   <c:v>13135.11339978857</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15004.99073983819</c:v>
+                  <c:v>15004.990739838189</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>16033.56897359788</c:v>
+                  <c:v>16033.568973597879</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>17649.85739543407</c:v>
+                  <c:v>17649.857395434072</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18910.57799971686</c:v>
+                  <c:v>18910.577999716861</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20067.9386865059</c:v>
+                  <c:v>20067.938686505899</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>21149.48007483868</c:v>
+                  <c:v>21149.480074838681</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>20857.33849285122</c:v>
+                  <c:v>20857.338492851221</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>21629.77563482806</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>22631.57862263848</c:v>
+                  <c:v>22631.578622638481</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>23138.42127469625</c:v>
+                  <c:v>23138.421274696251</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>22508.65559861411</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>24466.90072699302</c:v>
+                  <c:v>24466.900726993019</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>25473.32700290956</c:v>
+                  <c:v>25473.327002909558</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>25248.6147512536</c:v>
+                  <c:v>25248.614751253601</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>25855.0591874368</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>#NUM!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'Regression Plot'!$B$2:$B$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>108.258</c:v>
@@ -1585,25 +1664,25 @@
                   <c:v>114.334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122.475</c:v>
+                  <c:v>122.47499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>136.928</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>140.763</c:v>
+                  <c:v>140.76300000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>150.502</c:v>
+                  <c:v>150.50200000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153.933</c:v>
+                  <c:v>153.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>166.098</c:v>
+                  <c:v>166.09800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>174.199</c:v>
+                  <c:v>174.19900000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>192.762</c:v>
@@ -1615,46 +1694,46 @@
                   <c:v>211.387</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>251.168</c:v>
+                  <c:v>251.16800000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>271.117</c:v>
+                  <c:v>271.11700000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>269.381</c:v>
+                  <c:v>269.38099999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>281.144</c:v>
+                  <c:v>281.14400000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>287.901</c:v>
+                  <c:v>287.90100000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>318.29</c:v>
+                  <c:v>318.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>349.81</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>387.475</c:v>
+                  <c:v>387.47500000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>392.197</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>362.167</c:v>
+                  <c:v>362.16699999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>352.782</c:v>
+                  <c:v>352.78199999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>381.544</c:v>
+                  <c:v>381.54399999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>394.328</c:v>
+                  <c:v>394.32799999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>424.543</c:v>
+                  <c:v>424.54300000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>470.94</c:v>
@@ -1669,31 +1748,31 @@
                   <c:v>664.52</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>708.472</c:v>
+                  <c:v>708.47199999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>757.551</c:v>
+                  <c:v>757.55100000000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>782.282</c:v>
+                  <c:v>782.28200000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>851.405</c:v>
+                  <c:v>851.40499999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>938.915</c:v>
+                  <c:v>938.91499999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1015.685</c:v>
+                  <c:v>1015.6849999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1136.649</c:v>
+                  <c:v>1136.6489999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1163.198</c:v>
+                  <c:v>1163.1980000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1221.122</c:v>
+                  <c:v>1221.1220000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1322.64</c:v>
@@ -1702,7 +1781,7 @@
                   <c:v>1248.809</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1224.411</c:v>
+                  <c:v>1224.4110000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1250.203</c:v>
@@ -1711,13 +1790,13 @@
                   <c:v>1370.771</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1466.005</c:v>
+                  <c:v>1466.0050000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1604.922</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1745.535</c:v>
+                  <c:v>1745.5350000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1846.597</c:v>
@@ -1732,37 +1811,37 @@
                   <c:v>2044.164</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2126.302</c:v>
+                  <c:v>2126.3020000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2190.311</c:v>
+                  <c:v>2190.3110000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2275.784</c:v>
+                  <c:v>2275.7840000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>2283.058</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2293.881</c:v>
+                  <c:v>2293.8809999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2388.26</c:v>
+                  <c:v>2388.2600000000002</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2456.423</c:v>
+                  <c:v>2456.4229999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2469.535</c:v>
+                  <c:v>2469.5349999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2157.811</c:v>
+                  <c:v>2157.8110000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2297.169</c:v>
+                  <c:v>2297.1689999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2472.061</c:v>
+                  <c:v>2472.0610000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>2541.04</c:v>
@@ -1776,7 +1855,21 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7678-4F1A-860A-B2F57D438E87}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="50020001"/>
         <c:axId val="50020002"/>
       </c:scatterChart>
@@ -1785,6 +1878,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1802,9 +1896,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020002"/>
         <c:crosses val="autoZero"/>
@@ -1815,6 +1911,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -1833,9 +1930,11 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="50020001"/>
         <c:crosses val="autoZero"/>
@@ -1844,9 +1943,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1969,7 +2070,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2001,9 +2102,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2035,6 +2137,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2210,18 +2313,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="7" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2244,41 +2349,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1960</v>
       </c>
       <c r="B2" s="3">
-        <v>3500.273</v>
+        <v>3500.2730000000001</v>
       </c>
       <c r="C2" s="3">
         <v>69659</v>
       </c>
       <c r="D2" s="3">
-        <v>367.507</v>
+        <v>367.50700000000001</v>
       </c>
       <c r="E2" s="3">
         <v>108.258</v>
       </c>
       <c r="F2" s="4">
-        <v>0.1049938104827823</v>
+        <v>0.10499381048278229</v>
       </c>
       <c r="G2" s="3">
-        <v>5275.800686199917</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>5275.8006861999174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1961</v>
       </c>
       <c r="B3" s="3">
-        <v>3590.066</v>
+        <v>3590.0659999999998</v>
       </c>
       <c r="C3" s="3">
         <v>70450</v>
       </c>
       <c r="D3" s="3">
-        <v>368.683</v>
+        <v>368.68299999999999</v>
       </c>
       <c r="E3" s="3">
         <v>108.84</v>
@@ -2287,10 +2392,10 @@
         <v>0.1026953264926049</v>
       </c>
       <c r="G3" s="3">
-        <v>5233.257629524485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>5233.2576295244853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1962</v>
       </c>
@@ -2310,33 +2415,33 @@
         <v>0.1082655336848705</v>
       </c>
       <c r="G4" s="3">
-        <v>5841.275010974384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>5841.2750109743838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1963</v>
       </c>
       <c r="B5" s="3">
-        <v>3976.142</v>
+        <v>3976.1419999999998</v>
       </c>
       <c r="C5" s="3">
         <v>71812</v>
       </c>
       <c r="D5" s="3">
-        <v>440.507</v>
+        <v>440.50700000000001</v>
       </c>
       <c r="E5" s="3">
-        <v>122.475</v>
+        <v>122.47499999999999</v>
       </c>
       <c r="F5" s="4">
         <v>0.1107875422960246</v>
       </c>
       <c r="G5" s="3">
-        <v>6134.169776639002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>6134.1697766390016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1964</v>
       </c>
@@ -2347,93 +2452,93 @@
         <v>73077</v>
       </c>
       <c r="D6" s="3">
-        <v>475.251</v>
+        <v>475.25099999999998</v>
       </c>
       <c r="E6" s="3">
         <v>136.928</v>
       </c>
       <c r="F6" s="4">
-        <v>0.1130130072287747</v>
+        <v>0.11301300722877471</v>
       </c>
       <c r="G6" s="3">
-        <v>6503.427891128536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>6503.4278911285364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1965</v>
       </c>
       <c r="B7" s="3">
-        <v>4478.555</v>
+        <v>4478.5550000000003</v>
       </c>
       <c r="C7" s="3">
         <v>74424</v>
       </c>
       <c r="D7" s="3">
-        <v>541.026</v>
+        <v>541.02599999999995</v>
       </c>
       <c r="E7" s="3">
-        <v>140.763</v>
+        <v>140.76300000000001</v>
       </c>
       <c r="F7" s="4">
         <v>0.1208036967280741</v>
       </c>
       <c r="G7" s="3">
-        <v>7269.509835536923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>7269.5098355369228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1966</v>
       </c>
       <c r="B8" s="3">
-        <v>4773.931</v>
+        <v>4773.9309999999996</v>
       </c>
       <c r="C8" s="3">
         <v>75745</v>
       </c>
       <c r="D8" s="3">
-        <v>589.6130000000001</v>
+        <v>589.61300000000006</v>
       </c>
       <c r="E8" s="3">
-        <v>150.502</v>
+        <v>150.50200000000001</v>
       </c>
       <c r="F8" s="4">
         <v>0.1235068123104419</v>
       </c>
       <c r="G8" s="3">
-        <v>7784.183774506568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>7784.1837745065677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1967</v>
       </c>
       <c r="B9" s="3">
-        <v>4904.864</v>
+        <v>4904.8639999999996</v>
       </c>
       <c r="C9" s="3">
         <v>77348</v>
       </c>
       <c r="D9" s="3">
-        <v>568.985</v>
+        <v>568.98500000000001</v>
       </c>
       <c r="E9" s="3">
-        <v>153.933</v>
+        <v>153.93299999999999</v>
       </c>
       <c r="F9" s="4">
         <v>0.1160042357953248</v>
       </c>
       <c r="G9" s="3">
-        <v>7356.169519573874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>7356.1695195738739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1968</v>
       </c>
       <c r="B10" s="3">
-        <v>5145.914</v>
+        <v>5145.9139999999998</v>
       </c>
       <c r="C10" s="3">
         <v>78710</v>
@@ -2442,50 +2547,50 @@
         <v>602.995</v>
       </c>
       <c r="E10" s="3">
-        <v>166.098</v>
+        <v>166.09800000000001</v>
       </c>
       <c r="F10" s="4">
         <v>0.1171793776576911</v>
       </c>
       <c r="G10" s="3">
-        <v>7660.970651759624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>7660.9706517596242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1969</v>
       </c>
       <c r="B11" s="3">
-        <v>5306.595</v>
+        <v>5306.5950000000003</v>
       </c>
       <c r="C11" s="3">
         <v>80705</v>
       </c>
       <c r="D11" s="3">
-        <v>636.58</v>
+        <v>636.58000000000004</v>
       </c>
       <c r="E11" s="3">
-        <v>174.199</v>
+        <v>174.19900000000001</v>
       </c>
       <c r="F11" s="4">
         <v>0.1199601627785802</v>
       </c>
       <c r="G11" s="3">
-        <v>7887.739297441299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>7887.7392974412987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1970</v>
       </c>
       <c r="B12" s="3">
-        <v>5316.391</v>
+        <v>5316.3909999999996</v>
       </c>
       <c r="C12" s="3">
         <v>82796</v>
       </c>
       <c r="D12" s="3">
-        <v>597.876</v>
+        <v>597.87599999999998</v>
       </c>
       <c r="E12" s="3">
         <v>192.762</v>
@@ -2494,21 +2599,21 @@
         <v>0.1124589970903194</v>
       </c>
       <c r="G12" s="3">
-        <v>7221.073481810716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>7221.0734818107157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1971</v>
       </c>
       <c r="B13" s="3">
-        <v>5491.446</v>
+        <v>5491.4459999999999</v>
       </c>
       <c r="C13" s="3">
         <v>84376</v>
       </c>
       <c r="D13" s="3">
-        <v>659.4880000000001</v>
+        <v>659.48800000000006</v>
       </c>
       <c r="E13" s="3">
         <v>196.102</v>
@@ -2517,79 +2622,79 @@
         <v>0.1200936875278388</v>
       </c>
       <c r="G13" s="3">
-        <v>7816.061439271831</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>7816.0614392718307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1972</v>
       </c>
       <c r="B14" s="3">
-        <v>5780.048</v>
+        <v>5780.0479999999998</v>
       </c>
       <c r="C14" s="3">
         <v>87011</v>
       </c>
       <c r="D14" s="3">
-        <v>733.776</v>
+        <v>733.77599999999995</v>
       </c>
       <c r="E14" s="3">
         <v>211.387</v>
       </c>
       <c r="F14" s="4">
-        <v>0.126949810797419</v>
+        <v>0.12694981079741899</v>
       </c>
       <c r="G14" s="3">
-        <v>8433.140637390674</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>8433.1406373906739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1973</v>
       </c>
       <c r="B15" s="3">
-        <v>6106.371</v>
+        <v>6106.3710000000001</v>
       </c>
       <c r="C15" s="3">
         <v>89411</v>
       </c>
       <c r="D15" s="3">
-        <v>814.066</v>
+        <v>814.06600000000003</v>
       </c>
       <c r="E15" s="3">
-        <v>251.168</v>
+        <v>251.16800000000001</v>
       </c>
       <c r="F15" s="4">
         <v>0.1333142057696789</v>
       </c>
       <c r="G15" s="3">
-        <v>9104.763396002729</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>9104.7633960027288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1974</v>
       </c>
       <c r="B16" s="3">
-        <v>6073.363</v>
+        <v>6073.3630000000003</v>
       </c>
       <c r="C16" s="3">
         <v>91976</v>
       </c>
       <c r="D16" s="3">
-        <v>760.152</v>
+        <v>760.15200000000004</v>
       </c>
       <c r="E16" s="3">
-        <v>271.117</v>
+        <v>271.11700000000002</v>
       </c>
       <c r="F16" s="4">
-        <v>0.1251616279152094</v>
+        <v>0.12516162791520941</v>
       </c>
       <c r="G16" s="3">
-        <v>8264.677742019658</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>8264.6777420196577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1975</v>
       </c>
@@ -2600,93 +2705,93 @@
         <v>93770</v>
       </c>
       <c r="D17" s="3">
-        <v>637.013</v>
+        <v>637.01300000000003</v>
       </c>
       <c r="E17" s="3">
-        <v>269.381</v>
+        <v>269.38099999999997</v>
       </c>
       <c r="F17" s="4">
-        <v>0.1051024810774022</v>
+        <v>0.10510248107740219</v>
       </c>
       <c r="G17" s="3">
-        <v>6793.356084035406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>6793.3560840354057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1976</v>
       </c>
       <c r="B18" s="3">
-        <v>6387.437</v>
+        <v>6387.4369999999999</v>
       </c>
       <c r="C18" s="3">
         <v>96151</v>
       </c>
       <c r="D18" s="3">
-        <v>758.582</v>
+        <v>758.58199999999999</v>
       </c>
       <c r="E18" s="3">
-        <v>281.144</v>
+        <v>281.14400000000001</v>
       </c>
       <c r="F18" s="4">
         <v>0.1187615627363526</v>
       </c>
       <c r="G18" s="3">
-        <v>7889.486328795332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>7889.4863287953322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1977</v>
       </c>
       <c r="B19" s="3">
-        <v>6682.805</v>
+        <v>6682.8050000000003</v>
       </c>
       <c r="C19" s="3">
         <v>98984</v>
       </c>
       <c r="D19" s="3">
-        <v>866.804</v>
+        <v>866.80399999999997</v>
       </c>
       <c r="E19" s="3">
-        <v>287.901</v>
+        <v>287.90100000000001</v>
       </c>
       <c r="F19" s="4">
-        <v>0.1297066127172647</v>
+        <v>0.12970661271726469</v>
       </c>
       <c r="G19" s="3">
-        <v>8757.01123413885</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>8757.0112341388503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1978</v>
       </c>
       <c r="B20" s="3">
-        <v>7052.711</v>
+        <v>7052.7110000000002</v>
       </c>
       <c r="C20" s="3">
         <v>102233</v>
       </c>
       <c r="D20" s="3">
-        <v>967.071</v>
+        <v>967.07100000000003</v>
       </c>
       <c r="E20" s="3">
-        <v>318.29</v>
+        <v>318.29000000000002</v>
       </c>
       <c r="F20" s="4">
         <v>0.1371204633225436</v>
       </c>
       <c r="G20" s="3">
-        <v>9459.479815715082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>9459.4798157150817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1979</v>
       </c>
       <c r="B21" s="3">
-        <v>7275.999</v>
+        <v>7275.9989999999998</v>
       </c>
       <c r="C21" s="3">
         <v>104961</v>
@@ -2698,13 +2803,13 @@
         <v>349.81</v>
       </c>
       <c r="F21" s="4">
-        <v>0.1375709369943564</v>
+        <v>0.13757093699435641</v>
       </c>
       <c r="G21" s="3">
-        <v>9536.55167157325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>9536.5516715732501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1980</v>
       </c>
@@ -2718,21 +2823,21 @@
         <v>900.25</v>
       </c>
       <c r="E22" s="3">
-        <v>387.475</v>
+        <v>387.47500000000002</v>
       </c>
       <c r="F22" s="4">
         <v>0.1240472202054837</v>
       </c>
       <c r="G22" s="3">
-        <v>8415.596313122815</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>8415.5963131228145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1981</v>
       </c>
       <c r="B23" s="3">
-        <v>7441.485</v>
+        <v>7441.4849999999997</v>
       </c>
       <c r="C23" s="3">
         <v>108676</v>
@@ -2747,61 +2852,61 @@
         <v>0.131625609673338</v>
       </c>
       <c r="G23" s="3">
-        <v>9012.93753910707</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>9012.9375391070698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1982</v>
       </c>
       <c r="B24" s="3">
-        <v>7307.314</v>
+        <v>7307.3140000000003</v>
       </c>
       <c r="C24" s="3">
         <v>110244</v>
       </c>
       <c r="D24" s="3">
-        <v>856.458</v>
+        <v>856.45799999999997</v>
       </c>
       <c r="E24" s="3">
-        <v>362.167</v>
+        <v>362.16699999999997</v>
       </c>
       <c r="F24" s="4">
         <v>0.1172055833374616</v>
       </c>
       <c r="G24" s="3">
-        <v>7768.749319690867</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>7768.7493196908672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1983</v>
       </c>
       <c r="B25" s="3">
-        <v>7642.266</v>
+        <v>7642.2659999999996</v>
       </c>
       <c r="C25" s="3">
         <v>111515</v>
       </c>
       <c r="D25" s="3">
-        <v>936.3920000000001</v>
+        <v>936.39200000000005</v>
       </c>
       <c r="E25" s="3">
-        <v>352.782</v>
+        <v>352.78199999999998</v>
       </c>
       <c r="F25" s="4">
         <v>0.1225280564691153</v>
       </c>
       <c r="G25" s="3">
-        <v>8397.004887234902</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>8397.0048872349016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1984</v>
       </c>
       <c r="B26" s="3">
-        <v>8195.295</v>
+        <v>8195.2950000000001</v>
       </c>
       <c r="C26" s="3">
         <v>113532</v>
@@ -2810,44 +2915,44 @@
         <v>1191.944</v>
       </c>
       <c r="E26" s="3">
-        <v>381.544</v>
+        <v>381.54399999999998</v>
       </c>
       <c r="F26" s="4">
-        <v>0.1454424764453262</v>
+        <v>0.14544247644532621</v>
       </c>
       <c r="G26" s="3">
         <v>10498.7492513124</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>1985</v>
       </c>
       <c r="B27" s="3">
-        <v>8537.004000000001</v>
+        <v>8537.0040000000008</v>
       </c>
       <c r="C27" s="3">
         <v>115467</v>
       </c>
       <c r="D27" s="3">
-        <v>1191.185</v>
+        <v>1191.1849999999999</v>
       </c>
       <c r="E27" s="3">
-        <v>394.328</v>
+        <v>394.32799999999997</v>
       </c>
       <c r="F27" s="4">
-        <v>0.1395319716378252</v>
+        <v>0.13953197163782519</v>
       </c>
       <c r="G27" s="3">
-        <v>10316.23753972997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>10316.237539729969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1986</v>
       </c>
       <c r="B28" s="3">
-        <v>8832.611000000001</v>
+        <v>8832.6110000000008</v>
       </c>
       <c r="C28" s="3">
         <v>117846</v>
@@ -2856,21 +2961,21 @@
         <v>1193.068</v>
       </c>
       <c r="E28" s="3">
-        <v>424.543</v>
+        <v>424.54300000000001</v>
       </c>
       <c r="F28" s="4">
-        <v>0.1350753474821884</v>
+        <v>0.13507534748218841</v>
       </c>
       <c r="G28" s="3">
-        <v>10123.95838636865</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>10123.958386368649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>1987</v>
       </c>
       <c r="B29" s="3">
-        <v>9137.745000000001</v>
+        <v>9137.7450000000008</v>
       </c>
       <c r="C29" s="3">
         <v>119853</v>
@@ -2882,64 +2987,64 @@
         <v>470.94</v>
       </c>
       <c r="F29" s="4">
-        <v>0.1342751411863649</v>
+        <v>0.13427514118636491</v>
       </c>
       <c r="G29" s="3">
         <v>10237.3073681927</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>1988</v>
       </c>
       <c r="B30" s="3">
-        <v>9519.427</v>
+        <v>9519.4269999999997</v>
       </c>
       <c r="C30" s="3">
         <v>121671</v>
       </c>
       <c r="D30" s="3">
-        <v>1257.243</v>
+        <v>1257.2429999999999</v>
       </c>
       <c r="E30" s="3">
         <v>547.29</v>
       </c>
       <c r="F30" s="4">
-        <v>0.1320712895849719</v>
+        <v>0.13207128958497191</v>
       </c>
       <c r="G30" s="3">
         <v>10333.13608008482</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1989</v>
       </c>
       <c r="B31" s="3">
-        <v>9869.003000000001</v>
+        <v>9869.0030000000006</v>
       </c>
       <c r="C31" s="3">
         <v>123851</v>
       </c>
       <c r="D31" s="3">
-        <v>1308.1</v>
+        <v>1308.0999999999999</v>
       </c>
       <c r="E31" s="3">
         <v>610.649</v>
       </c>
       <c r="F31" s="4">
-        <v>0.1325463169886563</v>
+        <v>0.13254631698865629</v>
       </c>
       <c r="G31" s="3">
-        <v>10561.88484549984</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>10561.884845499841</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>1990</v>
       </c>
       <c r="B32" s="3">
-        <v>10055.129</v>
+        <v>10055.129000000001</v>
       </c>
       <c r="C32" s="3">
         <v>125857</v>
@@ -2954,33 +3059,33 @@
         <v>0.1267358181083505</v>
       </c>
       <c r="G32" s="3">
-        <v>10125.34066440484</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>10125.340664404839</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>1991</v>
       </c>
       <c r="B33" s="3">
-        <v>10044.238</v>
+        <v>10044.237999999999</v>
       </c>
       <c r="C33" s="3">
         <v>126352</v>
       </c>
       <c r="D33" s="3">
-        <v>1190.025</v>
+        <v>1190.0250000000001</v>
       </c>
       <c r="E33" s="3">
-        <v>708.472</v>
+        <v>708.47199999999998</v>
       </c>
       <c r="F33" s="4">
-        <v>0.1184783753630689</v>
+        <v>0.11847837536306891</v>
       </c>
       <c r="G33" s="3">
-        <v>9418.33132835254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>9418.3313283525404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>1992</v>
       </c>
@@ -2991,19 +3096,19 @@
         <v>128099</v>
       </c>
       <c r="D34" s="3">
-        <v>1276.737</v>
+        <v>1276.7370000000001</v>
       </c>
       <c r="E34" s="3">
-        <v>757.551</v>
+        <v>757.55100000000004</v>
       </c>
       <c r="F34" s="4">
         <v>0.1227862427229116</v>
       </c>
       <c r="G34" s="3">
-        <v>9966.799116308481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>9966.7991163084807</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>1993</v>
       </c>
@@ -3017,21 +3122,21 @@
         <v>1378.819</v>
       </c>
       <c r="E35" s="3">
-        <v>782.282</v>
+        <v>782.28200000000004</v>
       </c>
       <c r="F35" s="4">
-        <v>0.1290524054304968</v>
+        <v>0.12905240543049681</v>
       </c>
       <c r="G35" s="3">
-        <v>10673.21283430739</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>10673.212834307389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>1994</v>
       </c>
       <c r="B36" s="3">
-        <v>11114.646</v>
+        <v>11114.646000000001</v>
       </c>
       <c r="C36" s="3">
         <v>131047</v>
@@ -3040,21 +3145,21 @@
         <v>1541.894</v>
       </c>
       <c r="E36" s="3">
-        <v>851.405</v>
+        <v>851.40499999999997</v>
       </c>
       <c r="F36" s="4">
-        <v>0.1387263256067714</v>
+        <v>0.13872632560677139</v>
       </c>
       <c r="G36" s="3">
-        <v>11765.9618304883</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>11765.961830488301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>1995</v>
       </c>
       <c r="B37" s="3">
-        <v>11413.012</v>
+        <v>11413.012000000001</v>
       </c>
       <c r="C37" s="3">
         <v>132315</v>
@@ -3063,16 +3168,16 @@
         <v>1591.364</v>
       </c>
       <c r="E37" s="3">
-        <v>938.915</v>
+        <v>938.91499999999996</v>
       </c>
       <c r="F37" s="4">
-        <v>0.1394341826679933</v>
+        <v>0.13943418266799329</v>
       </c>
       <c r="G37" s="3">
         <v>12027.08687601557</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>1996</v>
       </c>
@@ -3083,19 +3188,19 @@
         <v>133951</v>
       </c>
       <c r="D38" s="3">
-        <v>1730.475</v>
+        <v>1730.4749999999999</v>
       </c>
       <c r="E38" s="3">
-        <v>1015.685</v>
+        <v>1015.6849999999999</v>
       </c>
       <c r="F38" s="4">
-        <v>0.1461105699373982</v>
+        <v>0.14611056993739821</v>
       </c>
       <c r="G38" s="3">
         <v>12918.7165456025</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1997</v>
       </c>
@@ -3106,19 +3211,19 @@
         <v>136301</v>
       </c>
       <c r="D39" s="3">
-        <v>1927.831</v>
+        <v>1927.8309999999999</v>
       </c>
       <c r="E39" s="3">
-        <v>1136.649</v>
+        <v>1136.6489999999999</v>
       </c>
       <c r="F39" s="4">
-        <v>0.1558435122834531</v>
+        <v>0.15584351228345311</v>
       </c>
       <c r="G39" s="3">
         <v>14143.9241091408</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>1998</v>
       </c>
@@ -3129,24 +3234,24 @@
         <v>137680</v>
       </c>
       <c r="D40" s="3">
-        <v>2111.478</v>
+        <v>2111.4780000000001</v>
       </c>
       <c r="E40" s="3">
-        <v>1163.198</v>
+        <v>1163.1980000000001</v>
       </c>
       <c r="F40" s="4">
-        <v>0.1633654357689776</v>
+        <v>0.16336543576897761</v>
       </c>
       <c r="G40" s="3">
-        <v>15336.12725159791</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>15336.127251597911</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>1999</v>
       </c>
       <c r="B41" s="3">
-        <v>13543.774</v>
+        <v>13543.773999999999</v>
       </c>
       <c r="C41" s="3">
         <v>139380</v>
@@ -3155,27 +3260,27 @@
         <v>2290.672</v>
       </c>
       <c r="E41" s="3">
-        <v>1221.122</v>
+        <v>1221.1220000000001</v>
       </c>
       <c r="F41" s="4">
         <v>0.1691309970175226</v>
       </c>
       <c r="G41" s="3">
-        <v>16434.7252116516</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>16434.725211651599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>2000</v>
       </c>
       <c r="B42" s="3">
-        <v>14096.033</v>
+        <v>14096.032999999999</v>
       </c>
       <c r="C42" s="3">
         <v>142586</v>
       </c>
       <c r="D42" s="3">
-        <v>2444.908</v>
+        <v>2444.9079999999999</v>
       </c>
       <c r="E42" s="3">
         <v>1322.64</v>
@@ -3184,33 +3289,33 @@
         <v>0.1734465292469165</v>
       </c>
       <c r="G42" s="3">
-        <v>17146.90081775209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>17146.900817752088</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>2001</v>
       </c>
       <c r="B43" s="3">
-        <v>14230.726</v>
+        <v>14230.726000000001</v>
       </c>
       <c r="C43" s="3">
         <v>143769</v>
       </c>
       <c r="D43" s="3">
-        <v>2307.396</v>
+        <v>2307.3960000000002</v>
       </c>
       <c r="E43" s="3">
         <v>1248.809</v>
       </c>
       <c r="F43" s="4">
-        <v>0.1621418331011363</v>
+        <v>0.16214183310113631</v>
       </c>
       <c r="G43" s="3">
-        <v>16049.32913214949</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>16049.329132149491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>2002</v>
       </c>
@@ -3221,19 +3326,19 @@
         <v>144856</v>
       </c>
       <c r="D44" s="3">
-        <v>2287.685</v>
+        <v>2287.6849999999999</v>
       </c>
       <c r="E44" s="3">
-        <v>1224.411</v>
+        <v>1224.4110000000001</v>
       </c>
       <c r="F44" s="4">
-        <v>0.158068853992258</v>
+        <v>0.15806885399225801</v>
       </c>
       <c r="G44" s="3">
-        <v>15792.82183685867</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>15792.821836858669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>2003</v>
       </c>
@@ -3244,19 +3349,19 @@
         <v>146500</v>
       </c>
       <c r="D45" s="3">
-        <v>2386.381</v>
+        <v>2386.3809999999999</v>
       </c>
       <c r="E45" s="3">
         <v>1250.203</v>
       </c>
       <c r="F45" s="4">
-        <v>0.1604040326368074</v>
+        <v>0.16040403263680739</v>
       </c>
       <c r="G45" s="3">
-        <v>16289.29010238908</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>16289.290102389081</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>2004</v>
       </c>
@@ -3267,53 +3372,53 @@
         <v>147380</v>
       </c>
       <c r="D46" s="3">
-        <v>2606.974</v>
+        <v>2606.9740000000002</v>
       </c>
       <c r="E46" s="3">
         <v>1370.771</v>
       </c>
       <c r="F46" s="4">
-        <v>0.168738835180385</v>
+        <v>0.16873883518038499</v>
       </c>
       <c r="G46" s="3">
-        <v>17688.79088071651</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>17688.790880716511</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>2005</v>
       </c>
       <c r="B47" s="3">
-        <v>15987.958</v>
+        <v>15987.958000000001</v>
       </c>
       <c r="C47" s="3">
         <v>149289</v>
       </c>
       <c r="D47" s="3">
-        <v>2782.236</v>
+        <v>2782.2359999999999</v>
       </c>
       <c r="E47" s="3">
-        <v>1466.005</v>
+        <v>1466.0050000000001</v>
       </c>
       <c r="F47" s="4">
-        <v>0.1740207223461558</v>
+        <v>0.17402072234615579</v>
       </c>
       <c r="G47" s="3">
-        <v>18636.57737676587</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>18636.577376765868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>2006</v>
       </c>
       <c r="B48" s="3">
-        <v>16433.148</v>
+        <v>16433.148000000001</v>
       </c>
       <c r="C48" s="3">
         <v>151409</v>
       </c>
       <c r="D48" s="3">
-        <v>2867.903</v>
+        <v>2867.9029999999998</v>
       </c>
       <c r="E48" s="3">
         <v>1604.922</v>
@@ -3322,10 +3427,10 @@
         <v>0.1745193921456801</v>
       </c>
       <c r="G48" s="3">
-        <v>18941.43016597428</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>18941.430165974281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>2007</v>
       </c>
@@ -3336,47 +3441,47 @@
         <v>153123</v>
       </c>
       <c r="D49" s="3">
-        <v>2796.023</v>
+        <v>2796.0230000000001</v>
       </c>
       <c r="E49" s="3">
-        <v>1745.535</v>
+        <v>1745.5350000000001</v>
       </c>
       <c r="F49" s="4">
-        <v>0.1668028043162675</v>
+        <v>0.16680280431626751</v>
       </c>
       <c r="G49" s="3">
-        <v>18259.98053852132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>18259.980538521319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>2008</v>
       </c>
       <c r="B50" s="3">
-        <v>16781.485</v>
+        <v>16781.485000000001</v>
       </c>
       <c r="C50" s="3">
         <v>154322</v>
       </c>
       <c r="D50" s="3">
-        <v>2564.26</v>
+        <v>2564.2600000000002</v>
       </c>
       <c r="E50" s="3">
         <v>1846.597</v>
       </c>
       <c r="F50" s="4">
-        <v>0.1528029253668552</v>
+        <v>0.15280292536685519</v>
       </c>
       <c r="G50" s="3">
         <v>16616.29579709957</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>2009</v>
       </c>
       <c r="B51" s="3">
-        <v>16349.111</v>
+        <v>16349.111000000001</v>
       </c>
       <c r="C51" s="3">
         <v>154189</v>
@@ -3394,7 +3499,7 @@
         <v>13135.11339978857</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>2010</v>
       </c>
@@ -3405,19 +3510,19 @@
         <v>153885</v>
       </c>
       <c r="D52" s="3">
-        <v>2309.043</v>
+        <v>2309.0430000000001</v>
       </c>
       <c r="E52" s="3">
         <v>1907.258</v>
       </c>
       <c r="F52" s="4">
-        <v>0.1375269353309647</v>
+        <v>0.13752693533096469</v>
       </c>
       <c r="G52" s="3">
-        <v>15004.99073983819</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>15004.990739838189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>2011</v>
       </c>
@@ -3428,65 +3533,65 @@
         <v>153624</v>
       </c>
       <c r="D53" s="3">
-        <v>2463.141</v>
+        <v>2463.1410000000001</v>
       </c>
       <c r="E53" s="3">
         <v>2044.164</v>
       </c>
       <c r="F53" s="4">
-        <v>0.1444453221306946</v>
+        <v>0.14444532213069461</v>
       </c>
       <c r="G53" s="3">
-        <v>16033.56897359788</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>16033.568973597879</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>2012</v>
       </c>
       <c r="B54" s="3">
-        <v>17442.759</v>
+        <v>17442.758999999998</v>
       </c>
       <c r="C54" s="3">
         <v>154974</v>
       </c>
       <c r="D54" s="3">
-        <v>2735.269</v>
+        <v>2735.2689999999998</v>
       </c>
       <c r="E54" s="3">
-        <v>2126.302</v>
+        <v>2126.3020000000001</v>
       </c>
       <c r="F54" s="4">
-        <v>0.1568140109027477</v>
+        <v>0.15681401090274771</v>
       </c>
       <c r="G54" s="3">
-        <v>17649.85739543407</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>17649.857395434072</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>2013</v>
       </c>
       <c r="B55" s="3">
-        <v>17812.167</v>
+        <v>17812.167000000001</v>
       </c>
       <c r="C55" s="3">
         <v>155398</v>
       </c>
       <c r="D55" s="3">
-        <v>2938.666</v>
+        <v>2938.6660000000002</v>
       </c>
       <c r="E55" s="3">
-        <v>2190.311</v>
+        <v>2190.3110000000001</v>
       </c>
       <c r="F55" s="4">
-        <v>0.1649808246239775</v>
+        <v>0.16498082462397751</v>
       </c>
       <c r="G55" s="3">
-        <v>18910.57799971686</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>18910.577999716861</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>2014</v>
       </c>
@@ -3497,88 +3602,88 @@
         <v>155920</v>
       </c>
       <c r="D56" s="3">
-        <v>3128.993</v>
+        <v>3128.9929999999999</v>
       </c>
       <c r="E56" s="3">
-        <v>2275.784</v>
+        <v>2275.7840000000001</v>
       </c>
       <c r="F56" s="4">
-        <v>0.171341693337219</v>
+        <v>0.17134169333721899</v>
       </c>
       <c r="G56" s="3">
-        <v>20067.9386865059</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>20067.938686505899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>2015</v>
       </c>
       <c r="B57" s="3">
-        <v>18799.622</v>
+        <v>18799.621999999999</v>
       </c>
       <c r="C57" s="3">
         <v>157138</v>
       </c>
       <c r="D57" s="3">
-        <v>3323.387</v>
+        <v>3323.3870000000002</v>
       </c>
       <c r="E57" s="3">
         <v>2283.058</v>
       </c>
       <c r="F57" s="4">
-        <v>0.1767794586508176</v>
+        <v>0.17677945865081759</v>
       </c>
       <c r="G57" s="3">
-        <v>21149.48007483868</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>21149.480074838681</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>2016</v>
       </c>
       <c r="B58" s="3">
-        <v>19141.672</v>
+        <v>19141.671999999999</v>
       </c>
       <c r="C58" s="3">
         <v>159188</v>
       </c>
       <c r="D58" s="3">
-        <v>3320.238</v>
+        <v>3320.2379999999998</v>
       </c>
       <c r="E58" s="3">
-        <v>2293.881</v>
+        <v>2293.8809999999999</v>
       </c>
       <c r="F58" s="4">
-        <v>0.1734560073958012</v>
+        <v>0.17345600739580119</v>
       </c>
       <c r="G58" s="3">
-        <v>20857.33849285122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>20857.338492851221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>2017</v>
       </c>
       <c r="B59" s="3">
-        <v>19612.103</v>
+        <v>19612.102999999999</v>
       </c>
       <c r="C59" s="3">
         <v>160319</v>
       </c>
       <c r="D59" s="3">
-        <v>3467.664</v>
+        <v>3467.6640000000002</v>
       </c>
       <c r="E59" s="3">
-        <v>2388.26</v>
+        <v>2388.2600000000002</v>
       </c>
       <c r="F59" s="4">
-        <v>0.1768124509645906</v>
+        <v>0.17681245096459061</v>
       </c>
       <c r="G59" s="3">
         <v>21629.77563482806</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>2018</v>
       </c>
@@ -3589,42 +3694,42 @@
         <v>162078</v>
       </c>
       <c r="D60" s="3">
-        <v>3668.081</v>
+        <v>3668.0810000000001</v>
       </c>
       <c r="E60" s="3">
-        <v>2456.423</v>
+        <v>2456.4229999999998</v>
       </c>
       <c r="F60" s="4">
-        <v>0.1816430658869921</v>
+        <v>0.18164306588699211</v>
       </c>
       <c r="G60" s="3">
-        <v>22631.57862263848</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>22631.578622638481</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>2019</v>
       </c>
       <c r="B61" s="3">
-        <v>20715.672</v>
+        <v>20715.671999999999</v>
       </c>
       <c r="C61" s="3">
         <v>163537</v>
       </c>
       <c r="D61" s="3">
-        <v>3783.988</v>
+        <v>3783.9879999999998</v>
       </c>
       <c r="E61" s="3">
-        <v>2469.535</v>
+        <v>2469.5349999999999</v>
       </c>
       <c r="F61" s="4">
-        <v>0.1826630581909194</v>
+        <v>0.18266305819091941</v>
       </c>
       <c r="G61" s="3">
-        <v>23138.42127469625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>23138.421274696251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>2020</v>
       </c>
@@ -3635,10 +3740,10 @@
         <v>160763</v>
       </c>
       <c r="D62" s="3">
-        <v>3618.559</v>
+        <v>3618.5590000000002</v>
       </c>
       <c r="E62" s="3">
-        <v>2157.811</v>
+        <v>2157.8110000000001</v>
       </c>
       <c r="F62" s="4">
         <v>0.178390347309522</v>
@@ -3647,30 +3752,30 @@
         <v>22508.65559861411</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>2021</v>
       </c>
       <c r="B63" s="3">
-        <v>21532.407</v>
+        <v>21532.406999999999</v>
       </c>
       <c r="C63" s="3">
         <v>161212</v>
       </c>
       <c r="D63" s="3">
-        <v>3944.358</v>
+        <v>3944.3580000000002</v>
       </c>
       <c r="E63" s="3">
-        <v>2297.169</v>
+        <v>2297.1689999999999</v>
       </c>
       <c r="F63" s="4">
         <v>0.183182400369824</v>
       </c>
       <c r="G63" s="3">
-        <v>24466.90072699302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>24466.900726993019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>2022</v>
       </c>
@@ -3681,30 +3786,30 @@
         <v>164286</v>
       </c>
       <c r="D64" s="3">
-        <v>4184.911</v>
+        <v>4184.9110000000001</v>
       </c>
       <c r="E64" s="3">
-        <v>2472.061</v>
+        <v>2472.0610000000001</v>
       </c>
       <c r="F64" s="4">
-        <v>0.1895689472847147</v>
+        <v>0.18956894728471471</v>
       </c>
       <c r="G64" s="3">
-        <v>25473.32700290956</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>25473.327002909558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>2023</v>
       </c>
       <c r="B65" s="3">
-        <v>22723.719</v>
+        <v>22723.719000000001</v>
       </c>
       <c r="C65" s="3">
         <v>167118</v>
       </c>
       <c r="D65" s="3">
-        <v>4219.498</v>
+        <v>4219.4979999999996</v>
       </c>
       <c r="E65" s="3">
         <v>2541.04</v>
@@ -3713,60 +3818,42 @@
         <v>0.1856869467537422</v>
       </c>
       <c r="G65" s="3">
-        <v>25248.6147512536</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>25248.614751253601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>2024</v>
       </c>
       <c r="B66" s="3">
-        <v>23358.435</v>
+        <v>23358.435000000001</v>
       </c>
       <c r="C66" s="3">
         <v>168110</v>
       </c>
       <c r="D66" s="3">
-        <v>4346.494</v>
+        <v>4346.4939999999997</v>
       </c>
       <c r="E66" s="3">
         <v>2633.598</v>
       </c>
       <c r="F66" s="4">
-        <v>0.1860781340873222</v>
+        <v>0.18607813408732221</v>
       </c>
       <c r="G66" s="3">
         <v>25855.0591874368</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>2025</v>
       </c>
-      <c r="B67" s="3" t="e">
-        <f>#NUM!</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C67" s="3" t="e">
-        <f>#NUM!</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D67" s="3" t="e">
-        <f>#NUM!</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E67" s="3" t="e">
-        <f>#NUM!</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F67" s="4" t="e">
-        <f>#NUM!</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G67" s="3" t="e">
-        <f>#NUM!</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3774,18 +3861,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="3" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="3" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3796,18 +3883,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1960</v>
       </c>
       <c r="B2" s="4">
-        <v>0.1049938104827823</v>
+        <v>0.10499381048278229</v>
       </c>
       <c r="C2" s="3">
-        <v>5275.800686199917</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>5275.8006861999174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1961</v>
       </c>
@@ -3815,10 +3902,10 @@
         <v>0.1026953264926049</v>
       </c>
       <c r="C3" s="3">
-        <v>5233.257629524485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>5233.2576295244853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1962</v>
       </c>
@@ -3826,10 +3913,10 @@
         <v>0.1082655336848705</v>
       </c>
       <c r="C4" s="3">
-        <v>5841.275010974384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>5841.2750109743838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1963</v>
       </c>
@@ -3837,21 +3924,21 @@
         <v>0.1107875422960246</v>
       </c>
       <c r="C5" s="3">
-        <v>6134.169776639002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>6134.1697766390016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1964</v>
       </c>
       <c r="B6" s="4">
-        <v>0.1130130072287747</v>
+        <v>0.11301300722877471</v>
       </c>
       <c r="C6" s="3">
-        <v>6503.427891128536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>6503.4278911285364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1965</v>
       </c>
@@ -3859,10 +3946,10 @@
         <v>0.1208036967280741</v>
       </c>
       <c r="C7" s="3">
-        <v>7269.509835536923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>7269.5098355369228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1966</v>
       </c>
@@ -3870,10 +3957,10 @@
         <v>0.1235068123104419</v>
       </c>
       <c r="C8" s="3">
-        <v>7784.183774506568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>7784.1837745065677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1967</v>
       </c>
@@ -3881,10 +3968,10 @@
         <v>0.1160042357953248</v>
       </c>
       <c r="C9" s="3">
-        <v>7356.169519573874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>7356.1695195738739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1968</v>
       </c>
@@ -3892,10 +3979,10 @@
         <v>0.1171793776576911</v>
       </c>
       <c r="C10" s="3">
-        <v>7660.970651759624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>7660.9706517596242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1969</v>
       </c>
@@ -3903,10 +3990,10 @@
         <v>0.1199601627785802</v>
       </c>
       <c r="C11" s="3">
-        <v>7887.739297441299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>7887.7392974412987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1970</v>
       </c>
@@ -3914,10 +4001,10 @@
         <v>0.1124589970903194</v>
       </c>
       <c r="C12" s="3">
-        <v>7221.073481810716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>7221.0734818107157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1971</v>
       </c>
@@ -3925,21 +4012,21 @@
         <v>0.1200936875278388</v>
       </c>
       <c r="C13" s="3">
-        <v>7816.061439271831</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>7816.0614392718307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1972</v>
       </c>
       <c r="B14" s="4">
-        <v>0.126949810797419</v>
+        <v>0.12694981079741899</v>
       </c>
       <c r="C14" s="3">
-        <v>8433.140637390674</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>8433.1406373906739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1973</v>
       </c>
@@ -3947,32 +4034,32 @@
         <v>0.1333142057696789</v>
       </c>
       <c r="C15" s="3">
-        <v>9104.763396002729</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>9104.7633960027288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1974</v>
       </c>
       <c r="B16" s="4">
-        <v>0.1251616279152094</v>
+        <v>0.12516162791520941</v>
       </c>
       <c r="C16" s="3">
-        <v>8264.677742019658</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>8264.6777420196577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1975</v>
       </c>
       <c r="B17" s="4">
-        <v>0.1051024810774022</v>
+        <v>0.10510248107740219</v>
       </c>
       <c r="C17" s="3">
-        <v>6793.356084035406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>6793.3560840354057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1976</v>
       </c>
@@ -3980,21 +4067,21 @@
         <v>0.1187615627363526</v>
       </c>
       <c r="C18" s="3">
-        <v>7889.486328795332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>7889.4863287953322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1977</v>
       </c>
       <c r="B19" s="4">
-        <v>0.1297066127172647</v>
+        <v>0.12970661271726469</v>
       </c>
       <c r="C19" s="3">
-        <v>8757.01123413885</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>8757.0112341388503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1978</v>
       </c>
@@ -4002,21 +4089,21 @@
         <v>0.1371204633225436</v>
       </c>
       <c r="C20" s="3">
-        <v>9459.479815715082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>9459.4798157150817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1979</v>
       </c>
       <c r="B21" s="4">
-        <v>0.1375709369943564</v>
+        <v>0.13757093699435641</v>
       </c>
       <c r="C21" s="3">
-        <v>9536.55167157325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>9536.5516715732501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1980</v>
       </c>
@@ -4024,10 +4111,10 @@
         <v>0.1240472202054837</v>
       </c>
       <c r="C22" s="3">
-        <v>8415.596313122815</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>8415.5963131228145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1981</v>
       </c>
@@ -4035,10 +4122,10 @@
         <v>0.131625609673338</v>
       </c>
       <c r="C23" s="3">
-        <v>9012.93753910707</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>9012.9375391070698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1982</v>
       </c>
@@ -4046,10 +4133,10 @@
         <v>0.1172055833374616</v>
       </c>
       <c r="C24" s="3">
-        <v>7768.749319690867</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>7768.7493196908672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1983</v>
       </c>
@@ -4057,76 +4144,76 @@
         <v>0.1225280564691153</v>
       </c>
       <c r="C25" s="3">
-        <v>8397.004887234902</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>8397.0048872349016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1984</v>
       </c>
       <c r="B26" s="4">
-        <v>0.1454424764453262</v>
+        <v>0.14544247644532621</v>
       </c>
       <c r="C26" s="3">
         <v>10498.7492513124</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>1985</v>
       </c>
       <c r="B27" s="4">
-        <v>0.1395319716378252</v>
+        <v>0.13953197163782519</v>
       </c>
       <c r="C27" s="3">
-        <v>10316.23753972997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>10316.237539729969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1986</v>
       </c>
       <c r="B28" s="4">
-        <v>0.1350753474821884</v>
+        <v>0.13507534748218841</v>
       </c>
       <c r="C28" s="3">
-        <v>10123.95838636865</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>10123.958386368649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>1987</v>
       </c>
       <c r="B29" s="4">
-        <v>0.1342751411863649</v>
+        <v>0.13427514118636491</v>
       </c>
       <c r="C29" s="3">
         <v>10237.3073681927</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>1988</v>
       </c>
       <c r="B30" s="4">
-        <v>0.1320712895849719</v>
+        <v>0.13207128958497191</v>
       </c>
       <c r="C30" s="3">
         <v>10333.13608008482</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1989</v>
       </c>
       <c r="B31" s="4">
-        <v>0.1325463169886563</v>
+        <v>0.13254631698865629</v>
       </c>
       <c r="C31" s="3">
-        <v>10561.88484549984</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>10561.884845499841</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>1990</v>
       </c>
@@ -4134,21 +4221,21 @@
         <v>0.1267358181083505</v>
       </c>
       <c r="C32" s="3">
-        <v>10125.34066440484</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>10125.340664404839</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>1991</v>
       </c>
       <c r="B33" s="4">
-        <v>0.1184783753630689</v>
+        <v>0.11847837536306891</v>
       </c>
       <c r="C33" s="3">
-        <v>9418.33132835254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>9418.3313283525404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>1992</v>
       </c>
@@ -4156,76 +4243,76 @@
         <v>0.1227862427229116</v>
       </c>
       <c r="C34" s="3">
-        <v>9966.799116308481</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>9966.7991163084807</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>1993</v>
       </c>
       <c r="B35" s="4">
-        <v>0.1290524054304968</v>
+        <v>0.12905240543049681</v>
       </c>
       <c r="C35" s="3">
-        <v>10673.21283430739</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>10673.212834307389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>1994</v>
       </c>
       <c r="B36" s="4">
-        <v>0.1387263256067714</v>
+        <v>0.13872632560677139</v>
       </c>
       <c r="C36" s="3">
-        <v>11765.9618304883</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>11765.961830488301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>1995</v>
       </c>
       <c r="B37" s="4">
-        <v>0.1394341826679933</v>
+        <v>0.13943418266799329</v>
       </c>
       <c r="C37" s="3">
         <v>12027.08687601557</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>1996</v>
       </c>
       <c r="B38" s="4">
-        <v>0.1461105699373982</v>
+        <v>0.14611056993739821</v>
       </c>
       <c r="C38" s="3">
         <v>12918.7165456025</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1997</v>
       </c>
       <c r="B39" s="4">
-        <v>0.1558435122834531</v>
+        <v>0.15584351228345311</v>
       </c>
       <c r="C39" s="3">
         <v>14143.9241091408</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>1998</v>
       </c>
       <c r="B40" s="4">
-        <v>0.1633654357689776</v>
+        <v>0.16336543576897761</v>
       </c>
       <c r="C40" s="3">
-        <v>15336.12725159791</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>15336.127251597911</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>1999</v>
       </c>
@@ -4233,10 +4320,10 @@
         <v>0.1691309970175226</v>
       </c>
       <c r="C41" s="3">
-        <v>16434.7252116516</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>16434.725211651599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>2000</v>
       </c>
@@ -4244,65 +4331,65 @@
         <v>0.1734465292469165</v>
       </c>
       <c r="C42" s="3">
-        <v>17146.90081775209</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>17146.900817752088</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>2001</v>
       </c>
       <c r="B43" s="4">
-        <v>0.1621418331011363</v>
+        <v>0.16214183310113631</v>
       </c>
       <c r="C43" s="3">
-        <v>16049.32913214949</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>16049.329132149491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>2002</v>
       </c>
       <c r="B44" s="4">
-        <v>0.158068853992258</v>
+        <v>0.15806885399225801</v>
       </c>
       <c r="C44" s="3">
-        <v>15792.82183685867</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>15792.821836858669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>2003</v>
       </c>
       <c r="B45" s="4">
-        <v>0.1604040326368074</v>
+        <v>0.16040403263680739</v>
       </c>
       <c r="C45" s="3">
-        <v>16289.29010238908</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>16289.290102389081</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>2004</v>
       </c>
       <c r="B46" s="4">
-        <v>0.168738835180385</v>
+        <v>0.16873883518038499</v>
       </c>
       <c r="C46" s="3">
-        <v>17688.79088071651</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>17688.790880716511</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>2005</v>
       </c>
       <c r="B47" s="4">
-        <v>0.1740207223461558</v>
+        <v>0.17402072234615579</v>
       </c>
       <c r="C47" s="3">
-        <v>18636.57737676587</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>18636.577376765868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>2006</v>
       </c>
@@ -4310,32 +4397,32 @@
         <v>0.1745193921456801</v>
       </c>
       <c r="C48" s="3">
-        <v>18941.43016597428</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>18941.430165974281</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>2007</v>
       </c>
       <c r="B49" s="4">
-        <v>0.1668028043162675</v>
+        <v>0.16680280431626751</v>
       </c>
       <c r="C49" s="3">
-        <v>18259.98053852132</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>18259.980538521319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>2008</v>
       </c>
       <c r="B50" s="4">
-        <v>0.1528029253668552</v>
+        <v>0.15280292536685519</v>
       </c>
       <c r="C50" s="3">
         <v>16616.29579709957</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>2009</v>
       </c>
@@ -4346,117 +4433,117 @@
         <v>13135.11339978857</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>2010</v>
       </c>
       <c r="B52" s="4">
-        <v>0.1375269353309647</v>
+        <v>0.13752693533096469</v>
       </c>
       <c r="C52" s="3">
-        <v>15004.99073983819</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>15004.990739838189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>2011</v>
       </c>
       <c r="B53" s="4">
-        <v>0.1444453221306946</v>
+        <v>0.14444532213069461</v>
       </c>
       <c r="C53" s="3">
-        <v>16033.56897359788</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>16033.568973597879</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>2012</v>
       </c>
       <c r="B54" s="4">
-        <v>0.1568140109027477</v>
+        <v>0.15681401090274771</v>
       </c>
       <c r="C54" s="3">
-        <v>17649.85739543407</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>17649.857395434072</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>2013</v>
       </c>
       <c r="B55" s="4">
-        <v>0.1649808246239775</v>
+        <v>0.16498082462397751</v>
       </c>
       <c r="C55" s="3">
-        <v>18910.57799971686</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>18910.577999716861</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>2014</v>
       </c>
       <c r="B56" s="4">
-        <v>0.171341693337219</v>
+        <v>0.17134169333721899</v>
       </c>
       <c r="C56" s="3">
-        <v>20067.9386865059</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>20067.938686505899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>2015</v>
       </c>
       <c r="B57" s="4">
-        <v>0.1767794586508176</v>
+        <v>0.17677945865081759</v>
       </c>
       <c r="C57" s="3">
-        <v>21149.48007483868</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>21149.480074838681</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>2016</v>
       </c>
       <c r="B58" s="4">
-        <v>0.1734560073958012</v>
+        <v>0.17345600739580119</v>
       </c>
       <c r="C58" s="3">
-        <v>20857.33849285122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>20857.338492851221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>2017</v>
       </c>
       <c r="B59" s="4">
-        <v>0.1768124509645906</v>
+        <v>0.17681245096459061</v>
       </c>
       <c r="C59" s="3">
         <v>21629.77563482806</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>2018</v>
       </c>
       <c r="B60" s="4">
-        <v>0.1816430658869921</v>
+        <v>0.18164306588699211</v>
       </c>
       <c r="C60" s="3">
-        <v>22631.57862263848</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>22631.578622638481</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>2019</v>
       </c>
       <c r="B61" s="4">
-        <v>0.1826630581909194</v>
+        <v>0.18266305819091941</v>
       </c>
       <c r="C61" s="3">
-        <v>23138.42127469625</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>23138.421274696251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>2020</v>
       </c>
@@ -4467,7 +4554,7 @@
         <v>22508.65559861411</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>2021</v>
       </c>
@@ -4475,21 +4562,21 @@
         <v>0.183182400369824</v>
       </c>
       <c r="C63" s="3">
-        <v>24466.90072699302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>24466.900726993019</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>2022</v>
       </c>
       <c r="B64" s="4">
-        <v>0.1895689472847147</v>
+        <v>0.18956894728471471</v>
       </c>
       <c r="C64" s="3">
-        <v>25473.32700290956</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>25473.327002909558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>2023</v>
       </c>
@@ -4497,21 +4584,21 @@
         <v>0.1856869467537422</v>
       </c>
       <c r="C65" s="3">
-        <v>25248.6147512536</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>25248.614751253601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>2024</v>
       </c>
       <c r="B66" s="4">
-        <v>0.1860781340873222</v>
+        <v>0.18607813408732221</v>
       </c>
       <c r="C66" s="3">
         <v>25855.0591874368</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>2025</v>
       </c>
@@ -4531,17 +4618,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.7109375" customWidth="1"/>
+    <col min="1" max="2" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4549,223 +4636,223 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>5275.800686199917</v>
+        <v>5275.8006861999174</v>
       </c>
       <c r="B2" s="3">
         <v>108.258</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>5233.257629524485</v>
+        <v>5233.2576295244853</v>
       </c>
       <c r="B3" s="3">
         <v>108.84</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>5841.275010974384</v>
+        <v>5841.2750109743838</v>
       </c>
       <c r="B4" s="3">
         <v>114.334</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>6134.169776639002</v>
+        <v>6134.1697766390016</v>
       </c>
       <c r="B5" s="3">
-        <v>122.475</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>122.47499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>6503.427891128536</v>
+        <v>6503.4278911285364</v>
       </c>
       <c r="B6" s="3">
         <v>136.928</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>7269.509835536923</v>
+        <v>7269.5098355369228</v>
       </c>
       <c r="B7" s="3">
-        <v>140.763</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>140.76300000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>7784.183774506568</v>
+        <v>7784.1837745065677</v>
       </c>
       <c r="B8" s="3">
-        <v>150.502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>150.50200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>7356.169519573874</v>
+        <v>7356.1695195738739</v>
       </c>
       <c r="B9" s="3">
-        <v>153.933</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>153.93299999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>7660.970651759624</v>
+        <v>7660.9706517596242</v>
       </c>
       <c r="B10" s="3">
-        <v>166.098</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>166.09800000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>7887.739297441299</v>
+        <v>7887.7392974412987</v>
       </c>
       <c r="B11" s="3">
-        <v>174.199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>174.19900000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>7221.073481810716</v>
+        <v>7221.0734818107157</v>
       </c>
       <c r="B12" s="3">
         <v>192.762</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>7816.061439271831</v>
+        <v>7816.0614392718307</v>
       </c>
       <c r="B13" s="3">
         <v>196.102</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>8433.140637390674</v>
+        <v>8433.1406373906739</v>
       </c>
       <c r="B14" s="3">
         <v>211.387</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>9104.763396002729</v>
+        <v>9104.7633960027288</v>
       </c>
       <c r="B15" s="3">
-        <v>251.168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>251.16800000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>8264.677742019658</v>
+        <v>8264.6777420196577</v>
       </c>
       <c r="B16" s="3">
-        <v>271.117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>271.11700000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>6793.356084035406</v>
+        <v>6793.3560840354057</v>
       </c>
       <c r="B17" s="3">
-        <v>269.381</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>269.38099999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>7889.486328795332</v>
+        <v>7889.4863287953322</v>
       </c>
       <c r="B18" s="3">
-        <v>281.144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>281.14400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>8757.01123413885</v>
+        <v>8757.0112341388503</v>
       </c>
       <c r="B19" s="3">
-        <v>287.901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>287.90100000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>9459.479815715082</v>
+        <v>9459.4798157150817</v>
       </c>
       <c r="B20" s="3">
-        <v>318.29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>318.29000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>9536.55167157325</v>
+        <v>9536.5516715732501</v>
       </c>
       <c r="B21" s="3">
         <v>349.81</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>8415.596313122815</v>
+        <v>8415.5963131228145</v>
       </c>
       <c r="B22" s="3">
-        <v>387.475</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>387.47500000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>9012.93753910707</v>
+        <v>9012.9375391070698</v>
       </c>
       <c r="B23" s="3">
         <v>392.197</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>7768.749319690867</v>
+        <v>7768.7493196908672</v>
       </c>
       <c r="B24" s="3">
-        <v>362.167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>362.16699999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>8397.004887234902</v>
+        <v>8397.0048872349016</v>
       </c>
       <c r="B25" s="3">
-        <v>352.782</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>352.78199999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>10498.7492513124</v>
       </c>
       <c r="B26" s="3">
-        <v>381.544</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>381.54399999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>10316.23753972997</v>
+        <v>10316.237539729969</v>
       </c>
       <c r="B27" s="3">
-        <v>394.328</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>394.32799999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>10123.95838636865</v>
+        <v>10123.958386368649</v>
       </c>
       <c r="B28" s="3">
-        <v>424.543</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>424.54300000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>10237.3073681927</v>
       </c>
@@ -4773,7 +4860,7 @@
         <v>470.94</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>10333.13608008482</v>
       </c>
@@ -4781,159 +4868,159 @@
         <v>547.29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>10561.88484549984</v>
+        <v>10561.884845499841</v>
       </c>
       <c r="B31" s="3">
         <v>610.649</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>10125.34066440484</v>
+        <v>10125.340664404839</v>
       </c>
       <c r="B32" s="3">
         <v>664.52</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>9418.33132835254</v>
+        <v>9418.3313283525404</v>
       </c>
       <c r="B33" s="3">
-        <v>708.472</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>708.47199999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>9966.799116308481</v>
+        <v>9966.7991163084807</v>
       </c>
       <c r="B34" s="3">
-        <v>757.551</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>757.55100000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>10673.21283430739</v>
+        <v>10673.212834307389</v>
       </c>
       <c r="B35" s="3">
-        <v>782.282</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>782.28200000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>11765.9618304883</v>
+        <v>11765.961830488301</v>
       </c>
       <c r="B36" s="3">
-        <v>851.405</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>851.40499999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>12027.08687601557</v>
       </c>
       <c r="B37" s="3">
-        <v>938.915</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>938.91499999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>12918.7165456025</v>
       </c>
       <c r="B38" s="3">
-        <v>1015.685</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>1015.6849999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>14143.9241091408</v>
       </c>
       <c r="B39" s="3">
-        <v>1136.649</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>1136.6489999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>15336.12725159791</v>
+        <v>15336.127251597911</v>
       </c>
       <c r="B40" s="3">
-        <v>1163.198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>1163.1980000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>16434.7252116516</v>
+        <v>16434.725211651599</v>
       </c>
       <c r="B41" s="3">
-        <v>1221.122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>1221.1220000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>17146.90081775209</v>
+        <v>17146.900817752088</v>
       </c>
       <c r="B42" s="3">
         <v>1322.64</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>16049.32913214949</v>
+        <v>16049.329132149491</v>
       </c>
       <c r="B43" s="3">
         <v>1248.809</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>15792.82183685867</v>
+        <v>15792.821836858669</v>
       </c>
       <c r="B44" s="3">
-        <v>1224.411</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>1224.4110000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>16289.29010238908</v>
+        <v>16289.290102389081</v>
       </c>
       <c r="B45" s="3">
         <v>1250.203</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>17688.79088071651</v>
+        <v>17688.790880716511</v>
       </c>
       <c r="B46" s="3">
         <v>1370.771</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>18636.57737676587</v>
+        <v>18636.577376765868</v>
       </c>
       <c r="B47" s="3">
-        <v>1466.005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>1466.0050000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>18941.43016597428</v>
+        <v>18941.430165974281</v>
       </c>
       <c r="B48" s="3">
         <v>1604.922</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>18259.98053852132</v>
+        <v>18259.980538521319</v>
       </c>
       <c r="B49" s="3">
-        <v>1745.535</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>1745.5350000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>16616.29579709957</v>
       </c>
@@ -4941,7 +5028,7 @@
         <v>1846.597</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>13135.11339978857</v>
       </c>
@@ -4949,119 +5036,119 @@
         <v>1693.098</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>15004.99073983819</v>
+        <v>15004.990739838189</v>
       </c>
       <c r="B52" s="3">
         <v>1907.258</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>16033.56897359788</v>
+        <v>16033.568973597879</v>
       </c>
       <c r="B53" s="3">
         <v>2044.164</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>17649.85739543407</v>
+        <v>17649.857395434072</v>
       </c>
       <c r="B54" s="3">
-        <v>2126.302</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>2126.3020000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>18910.57799971686</v>
+        <v>18910.577999716861</v>
       </c>
       <c r="B55" s="3">
-        <v>2190.311</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>2190.3110000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>20067.9386865059</v>
+        <v>20067.938686505899</v>
       </c>
       <c r="B56" s="3">
-        <v>2275.784</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>2275.7840000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>21149.48007483868</v>
+        <v>21149.480074838681</v>
       </c>
       <c r="B57" s="3">
         <v>2283.058</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>20857.33849285122</v>
+        <v>20857.338492851221</v>
       </c>
       <c r="B58" s="3">
-        <v>2293.881</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>2293.8809999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>21629.77563482806</v>
       </c>
       <c r="B59" s="3">
-        <v>2388.26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>2388.2600000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>22631.57862263848</v>
+        <v>22631.578622638481</v>
       </c>
       <c r="B60" s="3">
-        <v>2456.423</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>2456.4229999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>23138.42127469625</v>
+        <v>23138.421274696251</v>
       </c>
       <c r="B61" s="3">
-        <v>2469.535</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>2469.5349999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>22508.65559861411</v>
       </c>
       <c r="B62" s="3">
-        <v>2157.811</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>2157.8110000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>24466.90072699302</v>
+        <v>24466.900726993019</v>
       </c>
       <c r="B63" s="3">
-        <v>2297.169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>2297.1689999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>25473.32700290956</v>
+        <v>25473.327002909558</v>
       </c>
       <c r="B64" s="3">
-        <v>2472.061</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>2472.0610000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>25248.6147512536</v>
+        <v>25248.614751253601</v>
       </c>
       <c r="B65" s="3">
         <v>2541.04</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>25855.0591874368</v>
       </c>
@@ -5069,7 +5156,7 @@
         <v>2633.598</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="e">
         <f>#NUM!</f>
         <v>#NUM!</v>
@@ -5086,23 +5173,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="5" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -5119,7 +5206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -5127,33 +5214,33 @@
         <v>14.32562459153546</v>
       </c>
       <c r="C4" s="3">
-        <v>2.503142392411091</v>
+        <v>2.5031423924110912</v>
       </c>
       <c r="D4" s="3">
-        <v>10.26953264926049</v>
+        <v>10.269532649260491</v>
       </c>
       <c r="E4" s="3">
-        <v>18.95689472847148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>18.956894728471479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>13198.16166788339</v>
+        <v>13198.161667883391</v>
       </c>
       <c r="C5" s="3">
-        <v>5863.9613969971</v>
+        <v>5863.9613969970997</v>
       </c>
       <c r="D5" s="3">
-        <v>5233.257629524485</v>
+        <v>5233.2576295244853</v>
       </c>
       <c r="E5" s="3">
         <v>25855.0591874368</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -5161,7 +5248,7 @@
         <v>1028.903876923077</v>
       </c>
       <c r="C6" s="3">
-        <v>841.2832447198132</v>
+        <v>841.28324471981318</v>
       </c>
       <c r="D6" s="3">
         <v>108.258</v>
@@ -5170,7 +5257,7 @@
         <v>2633.598</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -5181,10 +5268,10 @@
         <v>5809.887357716425</v>
       </c>
       <c r="D7" s="3">
-        <v>3500.273</v>
+        <v>3500.2730000000001</v>
       </c>
       <c r="E7" s="3">
-        <v>23358.435</v>
+        <v>23358.435000000001</v>
       </c>
     </row>
   </sheetData>
